--- a/biology/Biologie cellulaire et moléculaire/Claire_Rougeulle/Claire_Rougeulle.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Claire_Rougeulle/Claire_Rougeulle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Claire Rougeulle est une généticienne française née le 12 janvier 1969 au Havre. Elle est directrice de recherche au Centre national de la recherche scientifique. Ses recherches portent sur l'épigénétique et notamment sur les longs ARN non codants (lncRNAs) et sur l'inactivation du chromosome X.
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle obtient son DEA en 1991 à l'Université Pierre-et-Marie-Curie, où elle soutient sa thèse en génétique en 1996 sous la direction de Philip Avner[1]. Après son doctorat, elle effectue un stage postdoctoral au Boston Children's Hospital à la Harvard Medical School à Boston[2]. En 1999, elle entre au CNRS [3]en tant que chargée de recherche. Elle travaille au laboratoire de Philip Avner à l'Institut Pasteur sur la chromatine et sur l'inactivation du chromosome X. En 2009, elle rejoint l'institut d'épigénétique et destin cellulaire à l'Université Paris-Diderot où elle devient responsable de l’équipe « ARN non codants, différenciation et développement »[4]. Depuis 2018, elle enseigne à l'École polytechnique[5]. Elle est directrice adjointe de l'institut d'épigénétique et destin cellulaire depuis janvier 2019[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle obtient son DEA en 1991 à l'Université Pierre-et-Marie-Curie, où elle soutient sa thèse en génétique en 1996 sous la direction de Philip Avner. Après son doctorat, elle effectue un stage postdoctoral au Boston Children's Hospital à la Harvard Medical School à Boston. En 1999, elle entre au CNRS en tant que chargée de recherche. Elle travaille au laboratoire de Philip Avner à l'Institut Pasteur sur la chromatine et sur l'inactivation du chromosome X. En 2009, elle rejoint l'institut d'épigénétique et destin cellulaire à l'Université Paris-Diderot où elle devient responsable de l’équipe « ARN non codants, différenciation et développement ». Depuis 2018, elle enseigne à l'École polytechnique. Elle est directrice adjointe de l'institut d'épigénétique et destin cellulaire depuis janvier 2019.
 </t>
         </is>
       </c>
@@ -543,21 +557,12 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Claire Rougeulle est membre de l'EMBO depuis 2016.
-Prix
-2007 :
-Bourse Starting Grant du conseil européen de la recherche[7]
-Médaille de bronze du CNRS[7]
-2016 : Prix Jean-Pierre Lecocq de l'académie des sciences[8]
-2018 : Prix du magazine La Recherche avec Céline Vallot[9]
-2019 : Médaille d'argent du CNRS[7]
-2020:
-Lauréate Advanced Grant du conseil européen de la recherche[10]
-2021:
-Prix Antoine Lacassagne[11] du collège de France
-Nomination chevalier dans l’Ordre National du Mérite[12]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Rougeulle est membre de l'EMBO depuis 2016.
+</t>
         </is>
       </c>
     </row>
@@ -582,17 +587,99 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Honneurs et récompenses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2007 :
+Bourse Starting Grant du conseil européen de la recherche
+Médaille de bronze du CNRS
+2016 : Prix Jean-Pierre Lecocq de l'académie des sciences
+2018 : Prix du magazine La Recherche avec Céline Vallot
+2019 : Médaille d'argent du CNRS
+2020:
+Lauréate Advanced Grant du conseil européen de la recherche
+2021:
+Prix Antoine Lacassagne du collège de France
+Nomination chevalier dans l’Ordre National du Mérite</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claire_Rougeulle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Rougeulle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au sein de l'unité UMR7216 de l'institut d'épigénétique et destin cellulaire, Claire Rougeulle anime une équipe d'une dizaine de personnes[13]. Les projets en cours :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Au sein de l'unité UMR7216 de l'institut d'épigénétique et destin cellulaire, Claire Rougeulle anime une équipe d'une dizaine de personnes. Les projets en cours :
 Étude des lncRNAs contrôlant l’inactivation de l’X chez la souris
 Régulation de l’inactivation du X chez l’homme, et contribution des lncRNAs à la variation de stratégies d’inactivation entre espèces
-LncRNAs et contextes pathologiques
-Publications
-Mahadik K, Rougeulle C.  Study of X Chromosome Activity Status in Human Naive Pluripotent Stem Cells Using RNA-FISH Methods Mol Biol. 2022;2416:239-255
+LncRNAs et contextes pathologiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claire_Rougeulle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Rougeulle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Recherches</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mahadik K, Rougeulle C.  Study of X Chromosome Activity Status in Human Naive Pluripotent Stem Cells Using RNA-FISH Methods Mol Biol. 2022;2416:239-255
 Moscatelli M., Rougeulle C. Dernières nouvelles du chromosome X: des principes généraux nuancés. Médecine/Sciences, 37 2 (2021) 152-158
 Ouimette JF, Rougeulle C. Many XCI-ting routes to reach the eXACT dose. Nat Cell Biol. 2020 Dec;22(12):1397-1398
 Cazottes E., Rougeulle C. Straight to the X: Modeling Human X Chromosome Inactivation in hESCs by FGF Signal Blockade.Cell Stem Cell.2020 Sep 3;27(3):352-353
